--- a/WebRPGInfo.xlsx
+++ b/WebRPGInfo.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\16415\Desktop\Projects\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\16415\Desktop\319 Final Repo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97AF57D8-1D56-4F49-853B-A73D92217848}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B42C2114-2574-4246-80E3-B25353CDCBD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12408" yWindow="0" windowWidth="10584" windowHeight="12336" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="144" yWindow="324" windowWidth="11424" windowHeight="11160" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Map" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1669" uniqueCount="972">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1672" uniqueCount="972">
   <si>
     <t>Shop</t>
   </si>
@@ -628,9 +628,6 @@
     <t>Ancient Furbo Skull</t>
   </si>
   <si>
-    <t>Mothers Ring</t>
-  </si>
-  <si>
     <t>Boosts the power of all relics, Damage over time, and Furbo equipment</t>
   </si>
   <si>
@@ -1474,9 +1471,6 @@
     <t>Incinerate [43]</t>
   </si>
   <si>
-    <t>Phase 1 10%</t>
-  </si>
-  <si>
     <t>Phase 1 60%</t>
   </si>
   <si>
@@ -1666,9 +1660,6 @@
     <t xml:space="preserve">Incinerate </t>
   </si>
   <si>
-    <t xml:space="preserve">Mothers Call </t>
-  </si>
-  <si>
     <t xml:space="preserve">Satanic Porridge Rain </t>
   </si>
   <si>
@@ -2323,9 +2314,6 @@
     <t>Crystal Morph Weapon [71]</t>
   </si>
   <si>
-    <t>Mothers Ring [76]</t>
-  </si>
-  <si>
     <t>Dragon Ring [77]</t>
   </si>
   <si>
@@ -2948,6 +2936,18 @@
   </si>
   <si>
     <t>%Damage</t>
+  </si>
+  <si>
+    <t>Dyssynergy</t>
+  </si>
+  <si>
+    <t>Strange Ring [76]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Strange Call </t>
+  </si>
+  <si>
+    <t>Strange Ring</t>
   </si>
 </sst>
 </file>
@@ -3522,7 +3522,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="128">
+  <cellXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -3767,6 +3767,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4446,8 +4447,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7F4CD94-2263-47F2-B7E0-EE43E04CDA08}">
   <dimension ref="A1:L101"/>
   <sheetViews>
-    <sheetView topLeftCell="C67" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="K99" sqref="K99"/>
+    <sheetView topLeftCell="A61" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="C80" sqref="C80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4476,7 +4477,7 @@
         <v>94</v>
       </c>
       <c r="D1" s="101" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E1" s="100" t="s">
         <v>85</v>
@@ -4485,16 +4486,16 @@
         <v>86</v>
       </c>
       <c r="G1" s="100" t="s">
+        <v>243</v>
+      </c>
+      <c r="H1" s="100" t="s">
         <v>244</v>
       </c>
-      <c r="H1" s="100" t="s">
+      <c r="I1" s="100" t="s">
         <v>245</v>
       </c>
-      <c r="I1" s="100" t="s">
+      <c r="J1" s="100" t="s">
         <v>246</v>
-      </c>
-      <c r="J1" s="100" t="s">
-        <v>247</v>
       </c>
       <c r="K1" s="100" t="s">
         <v>89</v>
@@ -4571,7 +4572,7 @@
         <v>102</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -4591,7 +4592,7 @@
         <v>97</v>
       </c>
       <c r="G4" s="102" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H4" s="102">
         <v>12</v>
@@ -4636,7 +4637,7 @@
         <v>24</v>
       </c>
       <c r="K5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="L5" s="2"/>
     </row>
@@ -4657,13 +4658,13 @@
         <v>97</v>
       </c>
       <c r="G6" s="102" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H6" s="102">
         <v>10</v>
       </c>
       <c r="I6" s="102" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="J6">
         <v>30</v>
@@ -4690,13 +4691,13 @@
         <v>97</v>
       </c>
       <c r="G7" s="102" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H7" s="102">
         <v>14</v>
       </c>
       <c r="I7" s="102" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="J7">
         <v>22</v>
@@ -4737,7 +4738,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C9" s="53">
         <v>7</v>
@@ -4764,7 +4765,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C10" s="53">
         <v>8</v>
@@ -4783,10 +4784,10 @@
       <c r="I10" s="103"/>
       <c r="J10" s="103"/>
       <c r="K10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
@@ -4840,7 +4841,7 @@
         <v>0</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
@@ -4868,7 +4869,7 @@
         <v>0</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
@@ -4939,7 +4940,7 @@
         <v>102</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
@@ -4974,7 +4975,7 @@
         <v>102</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
@@ -5009,7 +5010,7 @@
         <v>102</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
@@ -5029,7 +5030,7 @@
         <v>97</v>
       </c>
       <c r="G18" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H18">
         <v>16</v>
@@ -5077,7 +5078,7 @@
         <v>102</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
@@ -5112,7 +5113,7 @@
         <v>0</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
@@ -5206,7 +5207,7 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C24" s="53">
         <v>22</v>
@@ -5225,15 +5226,15 @@
       <c r="I24" s="103"/>
       <c r="J24" s="103"/>
       <c r="K24" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C25" s="53">
         <v>23</v>
@@ -5255,12 +5256,12 @@
         <v>135</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C26" s="53">
         <v>24</v>
@@ -5279,10 +5280,10 @@
       <c r="I26" s="103"/>
       <c r="J26" s="103"/>
       <c r="K26" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
@@ -5336,7 +5337,7 @@
         <v>135</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
@@ -5363,7 +5364,7 @@
         <v>102</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
@@ -5391,7 +5392,7 @@
         <v>135</v>
       </c>
       <c r="L30" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
@@ -5426,10 +5427,10 @@
         <v>28</v>
       </c>
       <c r="K31" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
@@ -5449,13 +5450,13 @@
         <v>97</v>
       </c>
       <c r="G32" s="102" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H32" s="102">
         <v>20</v>
       </c>
       <c r="I32" s="102" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="J32">
         <v>46</v>
@@ -5464,7 +5465,7 @@
         <v>102</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
@@ -5484,7 +5485,7 @@
         <v>97</v>
       </c>
       <c r="G33" s="102" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H33" s="102">
         <v>30</v>
@@ -5532,7 +5533,7 @@
         <v>102</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
@@ -5567,7 +5568,7 @@
         <v>102</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
@@ -5602,7 +5603,7 @@
         <v>135</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
@@ -5688,7 +5689,7 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C40" s="53">
         <v>38</v>
@@ -5710,12 +5711,12 @@
         <v>152</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C41" s="53">
         <v>39</v>
@@ -5734,10 +5735,10 @@
       <c r="I41" s="103"/>
       <c r="J41" s="103"/>
       <c r="K41" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
@@ -5791,7 +5792,7 @@
         <v>151</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>960</v>
+        <v>956</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
@@ -5818,7 +5819,7 @@
         <v>152</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
@@ -5846,7 +5847,7 @@
         <v>102</v>
       </c>
       <c r="L45" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
@@ -5884,12 +5885,12 @@
         <v>151</v>
       </c>
       <c r="L46" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C47" s="53">
         <v>45</v>
@@ -5919,7 +5920,7 @@
         <v>151</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
@@ -5954,7 +5955,7 @@
         <v>152</v>
       </c>
       <c r="L48" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
@@ -5986,10 +5987,10 @@
         <v>46</v>
       </c>
       <c r="K49" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
@@ -6009,13 +6010,13 @@
         <v>97</v>
       </c>
       <c r="G50" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H50">
         <v>12</v>
       </c>
       <c r="I50" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J50">
         <v>52</v>
@@ -6029,7 +6030,7 @@
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
       <c r="C51" s="53">
         <v>49</v>
@@ -6044,13 +6045,13 @@
         <v>97</v>
       </c>
       <c r="G51" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H51">
         <v>22</v>
       </c>
       <c r="I51" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="J51">
         <v>38</v>
@@ -6192,7 +6193,7 @@
         <v>175</v>
       </c>
       <c r="L56" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
@@ -6220,7 +6221,7 @@
         <v>175</v>
       </c>
       <c r="L57" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
@@ -6228,7 +6229,7 @@
         <v>191</v>
       </c>
       <c r="B58" t="s">
-        <v>962</v>
+        <v>958</v>
       </c>
       <c r="C58" s="53">
         <v>56</v>
@@ -6258,7 +6259,7 @@
         <v>102</v>
       </c>
       <c r="L58" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
@@ -6311,7 +6312,7 @@
         <v>97</v>
       </c>
       <c r="G60" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H60">
         <v>40</v>
@@ -6422,10 +6423,10 @@
         <v>38</v>
       </c>
       <c r="K63" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="L63" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
@@ -6457,7 +6458,7 @@
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B65" t="s">
-        <v>964</v>
+        <v>960</v>
       </c>
       <c r="C65" s="53">
         <v>63</v>
@@ -6484,7 +6485,7 @@
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B66" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C66" s="53">
         <v>64</v>
@@ -6511,7 +6512,7 @@
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B67" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C67" s="53">
         <v>65</v>
@@ -6530,10 +6531,10 @@
       <c r="I67" s="103"/>
       <c r="J67" s="103"/>
       <c r="K67" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="L67" s="2" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.3">
@@ -6565,7 +6566,7 @@
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B69" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C69" s="53">
         <v>67</v>
@@ -6584,10 +6585,10 @@
       <c r="I69" s="103"/>
       <c r="J69" s="103"/>
       <c r="K69" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="L69" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.3">
@@ -6614,7 +6615,7 @@
         <v>102</v>
       </c>
       <c r="L70" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.3">
@@ -6642,7 +6643,7 @@
         <v>102</v>
       </c>
       <c r="L71" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.3">
@@ -6650,7 +6651,7 @@
         <v>192</v>
       </c>
       <c r="B72" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C72" s="53">
         <v>70</v>
@@ -6677,10 +6678,10 @@
         <v>96</v>
       </c>
       <c r="K72" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L72" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.3">
@@ -6715,7 +6716,7 @@
         <v>102</v>
       </c>
       <c r="L73" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.3">
@@ -6735,7 +6736,7 @@
         <v>97</v>
       </c>
       <c r="G74" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H74">
         <v>60</v>
@@ -6770,25 +6771,25 @@
         <v>97</v>
       </c>
       <c r="G75" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H75">
         <v>60</v>
       </c>
       <c r="I75" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="J75">
         <v>86</v>
       </c>
       <c r="K75" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L75" s="2"/>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B76" t="s">
-        <v>965</v>
+        <v>961</v>
       </c>
       <c r="C76" s="53">
         <v>74</v>
@@ -6818,7 +6819,7 @@
         <v>102</v>
       </c>
       <c r="L76" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.3">
@@ -6853,12 +6854,12 @@
         <v>176</v>
       </c>
       <c r="L77" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B78" t="s">
-        <v>198</v>
+        <v>971</v>
       </c>
       <c r="C78" s="53">
         <v>76</v>
@@ -6880,7 +6881,7 @@
         <v>102</v>
       </c>
       <c r="L78" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.3">
@@ -6907,7 +6908,7 @@
         <v>102</v>
       </c>
       <c r="L79" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.3">
@@ -6934,7 +6935,7 @@
         <v>102</v>
       </c>
       <c r="L80" s="2" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.3">
@@ -6962,12 +6963,12 @@
         <v>102</v>
       </c>
       <c r="L81" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A82" s="119" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B82" s="120" t="s">
         <v>8</v>
@@ -6979,17 +6980,17 @@
         <v>70</v>
       </c>
       <c r="E82" s="120" t="s">
+        <v>226</v>
+      </c>
+      <c r="F82" s="120" t="s">
         <v>227</v>
-      </c>
-      <c r="F82" s="120" t="s">
-        <v>228</v>
       </c>
       <c r="G82" s="122"/>
       <c r="H82" s="122"/>
       <c r="I82" s="122"/>
       <c r="J82" s="122"/>
       <c r="K82" s="120" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L82" s="115"/>
     </row>
@@ -7005,17 +7006,17 @@
         <v>70</v>
       </c>
       <c r="E83" t="s">
+        <v>226</v>
+      </c>
+      <c r="F83" t="s">
         <v>227</v>
-      </c>
-      <c r="F83" t="s">
-        <v>228</v>
       </c>
       <c r="G83" s="103"/>
       <c r="H83" s="103"/>
       <c r="I83" s="103"/>
       <c r="J83" s="103"/>
       <c r="K83" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="L83" s="2"/>
     </row>
@@ -7031,17 +7032,17 @@
         <v>70</v>
       </c>
       <c r="E84" t="s">
+        <v>226</v>
+      </c>
+      <c r="F84" t="s">
         <v>227</v>
-      </c>
-      <c r="F84" t="s">
-        <v>228</v>
       </c>
       <c r="G84" s="103"/>
       <c r="H84" s="103"/>
       <c r="I84" s="103"/>
       <c r="J84" s="103"/>
       <c r="K84" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="L84" s="2"/>
     </row>
@@ -7057,24 +7058,24 @@
         <v>70</v>
       </c>
       <c r="E85" t="s">
+        <v>226</v>
+      </c>
+      <c r="F85" t="s">
         <v>227</v>
-      </c>
-      <c r="F85" t="s">
-        <v>228</v>
       </c>
       <c r="G85" s="103"/>
       <c r="H85" s="103"/>
       <c r="I85" s="103"/>
       <c r="J85" s="103"/>
       <c r="K85" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L85" s="2"/>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A86" s="1"/>
       <c r="B86" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C86" s="53">
         <v>84</v>
@@ -7083,24 +7084,24 @@
         <v>70</v>
       </c>
       <c r="E86" t="s">
+        <v>226</v>
+      </c>
+      <c r="F86" t="s">
         <v>227</v>
-      </c>
-      <c r="F86" t="s">
-        <v>228</v>
       </c>
       <c r="G86" s="103"/>
       <c r="H86" s="103"/>
       <c r="I86" s="103"/>
       <c r="J86" s="103"/>
       <c r="K86" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="L86" s="2"/>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A87" s="1"/>
       <c r="B87" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C87" s="53">
         <v>85</v>
@@ -7109,10 +7110,10 @@
         <v>70</v>
       </c>
       <c r="E87" t="s">
+        <v>226</v>
+      </c>
+      <c r="F87" t="s">
         <v>227</v>
-      </c>
-      <c r="F87" t="s">
-        <v>228</v>
       </c>
       <c r="G87" s="103"/>
       <c r="H87" s="103"/>
@@ -7126,7 +7127,7 @@
     <row r="88" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A88" s="1"/>
       <c r="B88" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C88" s="53">
         <v>86</v>
@@ -7135,10 +7136,10 @@
         <v>70</v>
       </c>
       <c r="E88" t="s">
+        <v>226</v>
+      </c>
+      <c r="F88" t="s">
         <v>227</v>
-      </c>
-      <c r="F88" t="s">
-        <v>228</v>
       </c>
       <c r="G88" s="103"/>
       <c r="H88" s="103"/>
@@ -7152,7 +7153,7 @@
     <row r="89" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A89" s="1"/>
       <c r="B89" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C89" s="53">
         <v>87</v>
@@ -7161,10 +7162,10 @@
         <v>70</v>
       </c>
       <c r="E89" t="s">
+        <v>226</v>
+      </c>
+      <c r="F89" t="s">
         <v>227</v>
-      </c>
-      <c r="F89" t="s">
-        <v>228</v>
       </c>
       <c r="G89" s="103"/>
       <c r="H89" s="103"/>
@@ -7178,7 +7179,7 @@
     <row r="90" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A90" s="114"/>
       <c r="B90" s="100" t="s">
-        <v>967</v>
+        <v>963</v>
       </c>
       <c r="C90" s="101">
         <v>88</v>
@@ -7187,26 +7188,26 @@
         <v>70</v>
       </c>
       <c r="E90" s="100" t="s">
+        <v>226</v>
+      </c>
+      <c r="F90" s="100" t="s">
         <v>227</v>
-      </c>
-      <c r="F90" s="100" t="s">
-        <v>228</v>
       </c>
       <c r="G90" s="104"/>
       <c r="H90" s="104"/>
       <c r="I90" s="104"/>
       <c r="J90" s="104"/>
       <c r="K90" s="100" t="s">
-        <v>968</v>
+        <v>964</v>
       </c>
       <c r="L90" s="3"/>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A91" s="119" t="s">
+        <v>214</v>
+      </c>
+      <c r="B91" s="120" t="s">
         <v>215</v>
-      </c>
-      <c r="B91" s="120" t="s">
-        <v>216</v>
       </c>
       <c r="C91" s="121">
         <v>89</v>
@@ -7215,10 +7216,10 @@
         <v>15</v>
       </c>
       <c r="E91" s="120" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F91" s="120" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G91" s="122"/>
       <c r="H91" s="122"/>
@@ -7228,13 +7229,13 @@
         <v>0</v>
       </c>
       <c r="L91" s="115" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A92" s="1"/>
       <c r="B92" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C92" s="53">
         <v>90</v>
@@ -7243,10 +7244,10 @@
         <v>15</v>
       </c>
       <c r="E92" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F92" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G92" s="103"/>
       <c r="H92" s="103"/>
@@ -7256,13 +7257,13 @@
         <v>0</v>
       </c>
       <c r="L92" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A93" s="1"/>
       <c r="B93" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C93" s="53">
         <v>91</v>
@@ -7271,10 +7272,10 @@
         <v>30</v>
       </c>
       <c r="E93" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F93" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G93" s="103"/>
       <c r="H93" s="103"/>
@@ -7284,13 +7285,13 @@
         <v>135</v>
       </c>
       <c r="L93" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A94" s="1"/>
       <c r="B94" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C94" s="53">
         <v>92</v>
@@ -7299,10 +7300,10 @@
         <v>30</v>
       </c>
       <c r="E94" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F94" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G94" s="103"/>
       <c r="H94" s="103"/>
@@ -7312,13 +7313,13 @@
         <v>135</v>
       </c>
       <c r="L94" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A95" s="1"/>
       <c r="B95" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C95" s="53">
         <v>93</v>
@@ -7327,10 +7328,10 @@
         <v>60</v>
       </c>
       <c r="E95" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F95" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G95" s="103"/>
       <c r="H95" s="103"/>
@@ -7340,13 +7341,13 @@
         <v>152</v>
       </c>
       <c r="L95" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A96" s="1"/>
       <c r="B96" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C96" s="53">
         <v>94</v>
@@ -7355,10 +7356,10 @@
         <v>60</v>
       </c>
       <c r="E96" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F96" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G96" s="103"/>
       <c r="H96" s="103"/>
@@ -7368,13 +7369,13 @@
         <v>152</v>
       </c>
       <c r="L96" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A97" s="1"/>
       <c r="B97" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C97" s="53">
         <v>95</v>
@@ -7383,10 +7384,10 @@
         <v>100</v>
       </c>
       <c r="E97" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F97" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G97" s="103"/>
       <c r="H97" s="103"/>
@@ -7396,13 +7397,13 @@
         <v>152</v>
       </c>
       <c r="L97" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A98" s="1"/>
       <c r="B98" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C98" s="53">
         <v>96</v>
@@ -7411,10 +7412,10 @@
         <v>60</v>
       </c>
       <c r="E98" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F98" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G98" s="103"/>
       <c r="H98" s="103"/>
@@ -7424,13 +7425,13 @@
         <v>152</v>
       </c>
       <c r="L98" s="2" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A99" s="1"/>
       <c r="B99" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C99" s="53">
         <v>97</v>
@@ -7439,10 +7440,10 @@
         <v>60</v>
       </c>
       <c r="E99" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F99" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G99" s="103"/>
       <c r="H99" s="103"/>
@@ -7452,13 +7453,13 @@
         <v>135</v>
       </c>
       <c r="L99" s="2" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A100" s="1"/>
       <c r="B100" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C100" s="53">
         <v>98</v>
@@ -7467,10 +7468,10 @@
         <v>200</v>
       </c>
       <c r="E100" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F100" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G100" s="103"/>
       <c r="H100" s="103"/>
@@ -7480,13 +7481,13 @@
         <v>175</v>
       </c>
       <c r="L100" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A101" s="114"/>
       <c r="B101" s="100" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C101" s="101">
         <v>99</v>
@@ -7495,10 +7496,10 @@
         <v>200</v>
       </c>
       <c r="E101" s="100" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F101" s="100" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G101" s="104"/>
       <c r="H101" s="104"/>
@@ -7508,7 +7509,7 @@
         <v>175</v>
       </c>
       <c r="L101" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
   </sheetData>
@@ -7520,8 +7521,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D87C691-37CF-452F-AC92-48CD394AA751}">
   <dimension ref="A1:N35"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7547,7 +7548,7 @@
         <v>19</v>
       </c>
       <c r="D1" s="95" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E1" s="99" t="s">
         <v>21</v>
@@ -7559,7 +7560,7 @@
         <v>83</v>
       </c>
       <c r="H1" s="95" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="J1" s="123" t="s">
         <v>50</v>
@@ -7616,7 +7617,7 @@
         <v>3</v>
       </c>
       <c r="G3" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="H3" s="2">
         <v>0</v>
@@ -7661,7 +7662,7 @@
         <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="H4" s="2">
         <v>2</v>
@@ -7706,7 +7707,7 @@
         <v>11</v>
       </c>
       <c r="G5" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="H5" s="2">
         <v>2</v>
@@ -7751,7 +7752,7 @@
         <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="H6" s="2">
         <v>4</v>
@@ -7796,7 +7797,7 @@
         <v>65</v>
       </c>
       <c r="G7" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="H7" s="2">
         <v>5</v>
@@ -7841,7 +7842,7 @@
         <v>40</v>
       </c>
       <c r="G8" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="H8" s="2">
         <v>3</v>
@@ -7886,7 +7887,7 @@
         <v>41</v>
       </c>
       <c r="G9" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="H9" s="2">
         <v>2</v>
@@ -7931,7 +7932,7 @@
         <v>65</v>
       </c>
       <c r="G10" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="H10" s="2">
         <v>5</v>
@@ -7962,7 +7963,7 @@
         <v>65</v>
       </c>
       <c r="G11" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="H11" s="2">
         <v>6</v>
@@ -8007,7 +8008,7 @@
         <v>42</v>
       </c>
       <c r="G12" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="H12" s="2">
         <v>6</v>
@@ -8052,7 +8053,7 @@
         <v>65</v>
       </c>
       <c r="G13" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="H13" s="2">
         <v>8</v>
@@ -8097,7 +8098,7 @@
         <v>70</v>
       </c>
       <c r="G14" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="H14" s="2">
         <v>9</v>
@@ -8128,7 +8129,7 @@
         <v>70</v>
       </c>
       <c r="G15" s="100" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="H15" s="3">
         <v>9</v>
@@ -8204,7 +8205,7 @@
         <v>20</v>
       </c>
       <c r="G17" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="H17" s="2">
         <v>4</v>
@@ -8249,7 +8250,7 @@
         <v>35</v>
       </c>
       <c r="G18" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="H18" s="2">
         <v>6</v>
@@ -8294,7 +8295,7 @@
         <v>46</v>
       </c>
       <c r="G19" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="H19" s="2">
         <v>8</v>
@@ -8339,7 +8340,7 @@
         <v>45</v>
       </c>
       <c r="G20" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="H20" s="2">
         <v>2</v>
@@ -8365,7 +8366,7 @@
         <v>48</v>
       </c>
       <c r="G21" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="H21" s="2">
         <v>6</v>
@@ -8391,7 +8392,7 @@
         <v>29</v>
       </c>
       <c r="G22" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="H22" s="2">
         <v>6</v>
@@ -8417,7 +8418,7 @@
         <v>80</v>
       </c>
       <c r="G23" s="100" t="s">
-        <v>963</v>
+        <v>959</v>
       </c>
       <c r="H23" s="3">
         <v>8</v>
@@ -8455,7 +8456,7 @@
         <v>15</v>
       </c>
       <c r="G25" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="H25" s="2">
         <v>4</v>
@@ -8481,7 +8482,7 @@
         <v>74</v>
       </c>
       <c r="G26" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="H26" s="2">
         <v>6</v>
@@ -8507,7 +8508,7 @@
         <v>30</v>
       </c>
       <c r="G27" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="H27" s="2">
         <v>8</v>
@@ -8530,10 +8531,10 @@
         <v>23</v>
       </c>
       <c r="F28" s="53" t="s">
-        <v>969</v>
+        <v>965</v>
       </c>
       <c r="G28" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="H28" s="2">
         <v>8</v>
@@ -8559,7 +8560,7 @@
         <v>79</v>
       </c>
       <c r="G29" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="H29" s="2">
         <v>9</v>
@@ -8611,7 +8612,7 @@
         <v>56</v>
       </c>
       <c r="G31" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="H31" s="2">
         <v>6</v>
@@ -8625,7 +8626,7 @@
         <v>12</v>
       </c>
       <c r="C32" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D32">
         <v>450</v>
@@ -8637,7 +8638,7 @@
         <v>77</v>
       </c>
       <c r="G32" t="s">
-        <v>763</v>
+        <v>969</v>
       </c>
       <c r="H32" s="2">
         <v>10</v>
@@ -8663,10 +8664,10 @@
         <v>59</v>
       </c>
       <c r="G33" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="H33" s="2">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
@@ -8689,7 +8690,7 @@
         <v>76</v>
       </c>
       <c r="G34" t="s">
-        <v>966</v>
+        <v>962</v>
       </c>
       <c r="H34" s="2">
         <v>8</v>
@@ -8706,7 +8707,7 @@
         <v>47</v>
       </c>
       <c r="D35" s="100">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="E35" s="101">
         <v>30</v>
@@ -8715,7 +8716,7 @@
         <v>75</v>
       </c>
       <c r="G35" s="100" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="H35" s="3">
         <v>12</v>
@@ -8736,8 +8737,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C20AC042-9002-40E3-9FE4-39377A94651A}">
   <dimension ref="A1:H58"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="F72" sqref="F72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8751,7 +8752,7 @@
         <v>21</v>
       </c>
       <c r="B1" s="110" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C1" s="106">
         <v>1</v>
@@ -8780,7 +8781,7 @@
         <v>22</v>
       </c>
       <c r="C2" s="109" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D2" s="107"/>
       <c r="E2" s="107"/>
@@ -8790,38 +8791,38 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B3" s="111" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C3" t="s">
+        <v>409</v>
+      </c>
+      <c r="D3" t="s">
+        <v>409</v>
+      </c>
+      <c r="E3" t="s">
         <v>410</v>
       </c>
-      <c r="D3" t="s">
-        <v>410</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>411</v>
-      </c>
-      <c r="F3" t="s">
-        <v>412</v>
       </c>
       <c r="G3" s="116"/>
       <c r="H3" s="98"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B4" s="111" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C4" t="s">
+        <v>392</v>
+      </c>
+      <c r="D4" t="s">
         <v>393</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>394</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>395</v>
-      </c>
-      <c r="F4" t="s">
-        <v>396</v>
       </c>
       <c r="G4" s="116"/>
       <c r="H4" s="98"/>
@@ -8834,7 +8835,7 @@
         <v>56</v>
       </c>
       <c r="C5" s="107" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D5" s="107"/>
       <c r="E5" s="107"/>
@@ -8844,43 +8845,43 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B6" s="111" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C6" t="s">
+        <v>401</v>
+      </c>
+      <c r="D6" t="s">
+        <v>401</v>
+      </c>
+      <c r="E6" t="s">
         <v>402</v>
       </c>
-      <c r="D6" t="s">
-        <v>402</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>403</v>
       </c>
-      <c r="F6" t="s">
-        <v>404</v>
-      </c>
       <c r="G6" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H6" s="98"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B7" s="111" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C7" t="s">
+        <v>396</v>
+      </c>
+      <c r="D7" t="s">
         <v>397</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>398</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>399</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>400</v>
-      </c>
-      <c r="G7" t="s">
-        <v>401</v>
       </c>
       <c r="H7" s="98"/>
     </row>
@@ -8892,7 +8893,7 @@
         <v>26</v>
       </c>
       <c r="C8" s="107" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D8" s="107"/>
       <c r="E8" s="107"/>
@@ -8902,16 +8903,16 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B9" s="111" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C9" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D9" t="s">
+        <v>412</v>
+      </c>
+      <c r="E9" t="s">
         <v>413</v>
-      </c>
-      <c r="E9" t="s">
-        <v>414</v>
       </c>
       <c r="F9" s="116"/>
       <c r="G9" s="116"/>
@@ -8919,16 +8920,16 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B10" s="111" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C10" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D10" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E10" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F10" s="116"/>
       <c r="G10" s="116"/>
@@ -8942,7 +8943,7 @@
         <v>27</v>
       </c>
       <c r="C11" s="107" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D11" s="107"/>
       <c r="E11" s="107"/>
@@ -8952,38 +8953,38 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B12" s="111" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C12" t="s">
+        <v>420</v>
+      </c>
+      <c r="D12" t="s">
         <v>421</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>422</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>423</v>
-      </c>
-      <c r="F12" t="s">
-        <v>424</v>
       </c>
       <c r="G12" s="116"/>
       <c r="H12" s="98"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B13" s="111" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C13" t="s">
+        <v>418</v>
+      </c>
+      <c r="D13" t="s">
         <v>419</v>
       </c>
-      <c r="D13" t="s">
-        <v>420</v>
-      </c>
       <c r="E13" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F13" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G13" s="116"/>
       <c r="H13" s="98"/>
@@ -8996,7 +8997,7 @@
         <v>28</v>
       </c>
       <c r="C14" s="107" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D14" s="107"/>
       <c r="E14" s="107"/>
@@ -9006,43 +9007,43 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B15" s="111" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C15" t="s">
+        <v>429</v>
+      </c>
+      <c r="D15" t="s">
+        <v>412</v>
+      </c>
+      <c r="E15" t="s">
+        <v>431</v>
+      </c>
+      <c r="F15" t="s">
+        <v>412</v>
+      </c>
+      <c r="G15" t="s">
         <v>430</v>
-      </c>
-      <c r="D15" t="s">
-        <v>413</v>
-      </c>
-      <c r="E15" t="s">
-        <v>432</v>
-      </c>
-      <c r="F15" t="s">
-        <v>413</v>
-      </c>
-      <c r="G15" t="s">
-        <v>431</v>
       </c>
       <c r="H15" s="98"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B16" s="111" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C16" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D16" t="s">
+        <v>424</v>
+      </c>
+      <c r="E16" t="s">
         <v>425</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>426</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>427</v>
-      </c>
-      <c r="G16" t="s">
-        <v>428</v>
       </c>
       <c r="H16" s="98"/>
     </row>
@@ -9062,7 +9063,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B18" s="111" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C18" s="113">
         <v>0.2</v>
@@ -9083,22 +9084,22 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B19" s="111" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C19" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D19" t="s">
+        <v>432</v>
+      </c>
+      <c r="E19" t="s">
         <v>433</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>434</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>435</v>
-      </c>
-      <c r="G19" t="s">
-        <v>436</v>
       </c>
       <c r="H19" s="98"/>
     </row>
@@ -9110,7 +9111,7 @@
         <v>48</v>
       </c>
       <c r="C20" s="107" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D20" s="107"/>
       <c r="E20" s="107"/>
@@ -9120,38 +9121,38 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B21" s="111" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C21" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D21" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E21" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F21" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G21" s="116"/>
       <c r="H21" s="98"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B22" s="111" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C22" t="s">
+        <v>436</v>
+      </c>
+      <c r="D22" t="s">
+        <v>449</v>
+      </c>
+      <c r="E22" t="s">
         <v>437</v>
       </c>
-      <c r="D22" t="s">
-        <v>450</v>
-      </c>
-      <c r="E22" t="s">
-        <v>438</v>
-      </c>
       <c r="F22" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G22" s="116"/>
       <c r="H22" s="98"/>
@@ -9164,7 +9165,7 @@
         <v>39</v>
       </c>
       <c r="C23" s="107" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D23" s="107"/>
       <c r="E23" s="107"/>
@@ -9174,43 +9175,43 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B24" s="111" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C24" t="s">
+        <v>442</v>
+      </c>
+      <c r="D24" t="s">
+        <v>442</v>
+      </c>
+      <c r="E24" t="s">
         <v>443</v>
       </c>
-      <c r="D24" t="s">
-        <v>443</v>
-      </c>
-      <c r="E24" t="s">
+      <c r="F24" s="105" t="s">
         <v>444</v>
       </c>
-      <c r="F24" s="105" t="s">
-        <v>445</v>
-      </c>
       <c r="G24" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H24" s="98"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B25" s="111" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C25" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D25" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E25" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F25" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="G25" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="H25" s="98"/>
     </row>
@@ -9222,7 +9223,7 @@
         <v>66</v>
       </c>
       <c r="C26" s="107" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D26" s="107"/>
       <c r="E26" s="107"/>
@@ -9232,43 +9233,43 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B27" s="111" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C27" t="s">
+        <v>445</v>
+      </c>
+      <c r="D27" t="s">
+        <v>447</v>
+      </c>
+      <c r="E27" t="s">
         <v>446</v>
       </c>
-      <c r="D27" t="s">
-        <v>448</v>
-      </c>
-      <c r="E27" t="s">
-        <v>447</v>
-      </c>
       <c r="F27" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G27" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H27" s="98"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B28" s="111" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C28" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D28" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E28" t="s">
+        <v>398</v>
+      </c>
+      <c r="F28" t="s">
         <v>399</v>
       </c>
-      <c r="F28" t="s">
+      <c r="G28" t="s">
         <v>400</v>
-      </c>
-      <c r="G28" t="s">
-        <v>401</v>
       </c>
       <c r="H28" s="98"/>
     </row>
@@ -9280,7 +9281,7 @@
         <v>78</v>
       </c>
       <c r="C29" s="107" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D29" s="107"/>
       <c r="E29" s="107"/>
@@ -9290,43 +9291,43 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B30" s="111" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C30" s="113">
         <v>0.4</v>
       </c>
       <c r="D30" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E30" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F30" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="G30" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H30" s="98"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B31" s="111" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C31" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D31" t="s">
+        <v>452</v>
+      </c>
+      <c r="E31" t="s">
         <v>453</v>
       </c>
-      <c r="E31" t="s">
-        <v>454</v>
-      </c>
       <c r="F31" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="G31" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H31" s="98"/>
     </row>
@@ -9338,7 +9339,7 @@
         <v>37</v>
       </c>
       <c r="C32" s="107" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D32" s="107"/>
       <c r="E32" s="107"/>
@@ -9348,38 +9349,38 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B33" s="111" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C33" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D33" t="s">
+        <v>455</v>
+      </c>
+      <c r="E33" t="s">
         <v>456</v>
       </c>
-      <c r="E33" t="s">
-        <v>457</v>
-      </c>
       <c r="F33" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="G33" s="116"/>
       <c r="H33" s="98"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B34" s="111" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C34" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D34" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E34" t="s">
+        <v>457</v>
+      </c>
+      <c r="F34" t="s">
         <v>458</v>
-      </c>
-      <c r="F34" t="s">
-        <v>459</v>
       </c>
       <c r="G34" s="116"/>
       <c r="H34" s="98"/>
@@ -9400,7 +9401,7 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B36" s="111" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C36" s="113">
         <v>0.25</v>
@@ -9417,16 +9418,16 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B37" s="111" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C37" t="s">
+        <v>461</v>
+      </c>
+      <c r="D37" t="s">
         <v>462</v>
       </c>
-      <c r="D37" t="s">
+      <c r="E37" t="s">
         <v>463</v>
-      </c>
-      <c r="E37" t="s">
-        <v>464</v>
       </c>
       <c r="F37" s="116"/>
       <c r="G37" s="116"/>
@@ -9440,7 +9441,7 @@
         <v>61</v>
       </c>
       <c r="C38" s="107" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D38" s="107"/>
       <c r="E38" s="107"/>
@@ -9450,48 +9451,48 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B39" s="111" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C39" t="s">
+        <v>467</v>
+      </c>
+      <c r="D39" t="s">
+        <v>470</v>
+      </c>
+      <c r="E39" t="s">
         <v>468</v>
       </c>
-      <c r="D39" t="s">
-        <v>471</v>
-      </c>
-      <c r="E39" t="s">
+      <c r="F39" t="s">
         <v>469</v>
       </c>
-      <c r="F39" t="s">
+      <c r="G39" t="s">
         <v>470</v>
       </c>
-      <c r="G39" t="s">
-        <v>471</v>
-      </c>
       <c r="H39" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B40" s="111" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C40" t="s">
+        <v>464</v>
+      </c>
+      <c r="D40" t="s">
         <v>465</v>
       </c>
-      <c r="D40" t="s">
+      <c r="E40" t="s">
+        <v>397</v>
+      </c>
+      <c r="F40" t="s">
+        <v>453</v>
+      </c>
+      <c r="G40" t="s">
+        <v>452</v>
+      </c>
+      <c r="H40" s="2" t="s">
         <v>466</v>
-      </c>
-      <c r="E40" t="s">
-        <v>398</v>
-      </c>
-      <c r="F40" t="s">
-        <v>454</v>
-      </c>
-      <c r="G40" t="s">
-        <v>453</v>
-      </c>
-      <c r="H40" s="2" t="s">
-        <v>467</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
@@ -9502,7 +9503,7 @@
         <v>72</v>
       </c>
       <c r="C41" s="107" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D41" s="107"/>
       <c r="E41" s="107"/>
@@ -9512,48 +9513,48 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B42" s="111" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C42" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D42" t="s">
+        <v>473</v>
+      </c>
+      <c r="E42" t="s">
+        <v>422</v>
+      </c>
+      <c r="F42" t="s">
+        <v>473</v>
+      </c>
+      <c r="G42" t="s">
         <v>474</v>
       </c>
-      <c r="E42" t="s">
-        <v>423</v>
-      </c>
-      <c r="F42" t="s">
+      <c r="H42" s="115" t="s">
         <v>474</v>
-      </c>
-      <c r="G42" t="s">
-        <v>475</v>
-      </c>
-      <c r="H42" s="115" t="s">
-        <v>475</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B43" s="111" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C43" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D43" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E43" t="s">
+        <v>471</v>
+      </c>
+      <c r="F43" t="s">
         <v>472</v>
       </c>
-      <c r="F43" t="s">
-        <v>473</v>
-      </c>
       <c r="G43" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
@@ -9564,7 +9565,7 @@
         <v>40</v>
       </c>
       <c r="C44" s="107" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D44" s="107"/>
       <c r="E44" s="107"/>
@@ -9574,48 +9575,48 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B45" s="111" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C45" s="113">
         <v>0.3</v>
       </c>
       <c r="D45" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="E45" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="F45" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="G45" t="s">
-        <v>482</v>
-      </c>
-      <c r="H45" s="2" t="s">
         <v>480</v>
+      </c>
+      <c r="H45" s="128">
+        <v>0.1</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B46" s="111" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C46" t="s">
+        <v>475</v>
+      </c>
+      <c r="D46" t="s">
         <v>476</v>
       </c>
-      <c r="D46" t="s">
+      <c r="E46" t="s">
         <v>477</v>
       </c>
-      <c r="E46" t="s">
+      <c r="F46" t="s">
+        <v>458</v>
+      </c>
+      <c r="G46" t="s">
         <v>478</v>
       </c>
-      <c r="F46" t="s">
-        <v>459</v>
-      </c>
-      <c r="G46" t="s">
-        <v>479</v>
-      </c>
       <c r="H46" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
@@ -9626,7 +9627,7 @@
         <v>45</v>
       </c>
       <c r="C47" s="107" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="D47" s="107"/>
       <c r="E47" s="107"/>
@@ -9636,7 +9637,7 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B48" s="111" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C48" s="116"/>
       <c r="D48" s="116"/>
@@ -9647,7 +9648,7 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B49" s="111" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C49" s="116"/>
       <c r="D49" s="116"/>
@@ -9661,10 +9662,10 @@
         <v>16</v>
       </c>
       <c r="B50" s="110" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C50" s="107" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D50" s="107"/>
       <c r="E50" s="107"/>
@@ -9674,48 +9675,48 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B51" s="111" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C51" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D51" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="E51" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="F51" t="s">
+        <v>485</v>
+      </c>
+      <c r="G51" t="s">
+        <v>486</v>
+      </c>
+      <c r="H51" s="2" t="s">
         <v>487</v>
-      </c>
-      <c r="G51" t="s">
-        <v>488</v>
-      </c>
-      <c r="H51" s="2" t="s">
-        <v>489</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B52" s="111" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C52" t="s">
+        <v>432</v>
+      </c>
+      <c r="D52" t="s">
         <v>433</v>
       </c>
-      <c r="D52" t="s">
+      <c r="E52" t="s">
         <v>434</v>
       </c>
-      <c r="E52" t="s">
+      <c r="F52" t="s">
         <v>435</v>
       </c>
-      <c r="F52" t="s">
-        <v>436</v>
-      </c>
       <c r="G52" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
@@ -9726,7 +9727,7 @@
         <v>82</v>
       </c>
       <c r="C53" s="107" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D53" s="107"/>
       <c r="E53" s="107"/>
@@ -9736,7 +9737,7 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B54" s="111" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C54" s="113">
         <v>0.1</v>
@@ -9748,36 +9749,36 @@
         <v>0.1</v>
       </c>
       <c r="F54" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="G54" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B55" s="111" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C55" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D55" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E55" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F55" t="s">
+        <v>491</v>
+      </c>
+      <c r="G55" t="s">
+        <v>492</v>
+      </c>
+      <c r="H55" s="2" t="s">
         <v>493</v>
-      </c>
-      <c r="G55" t="s">
-        <v>494</v>
-      </c>
-      <c r="H55" s="2" t="s">
-        <v>495</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
@@ -9788,7 +9789,7 @@
         <v>47</v>
       </c>
       <c r="C56" s="107" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D56" s="107"/>
       <c r="E56" s="107"/>
@@ -9798,48 +9799,48 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B57" s="111" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C57" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D57" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="E57" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="F57" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="G57" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H57" s="115" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B58" s="112" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C58" s="114" t="s">
+        <v>432</v>
+      </c>
+      <c r="D58" s="100" t="s">
         <v>433</v>
       </c>
-      <c r="D58" s="100" t="s">
+      <c r="E58" s="100" t="s">
         <v>434</v>
       </c>
-      <c r="E58" s="100" t="s">
+      <c r="F58" s="100" t="s">
+        <v>492</v>
+      </c>
+      <c r="G58" s="100" t="s">
         <v>435</v>
       </c>
-      <c r="F58" s="100" t="s">
-        <v>494</v>
-      </c>
-      <c r="G58" s="100" t="s">
-        <v>436</v>
-      </c>
       <c r="H58" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
   </sheetData>
@@ -9852,8 +9853,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3ACACC0-C7D0-43EB-8A1C-A0018F2A3935}">
   <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9868,22 +9869,22 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="95" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B1" s="95" t="s">
         <v>17</v>
       </c>
       <c r="C1" s="95" t="s">
+        <v>504</v>
+      </c>
+      <c r="D1" s="95" t="s">
+        <v>505</v>
+      </c>
+      <c r="E1" s="95" t="s">
+        <v>547</v>
+      </c>
+      <c r="F1" s="95" t="s">
         <v>506</v>
-      </c>
-      <c r="D1" s="95" t="s">
-        <v>507</v>
-      </c>
-      <c r="E1" s="95" t="s">
-        <v>550</v>
-      </c>
-      <c r="F1" s="95" t="s">
-        <v>508</v>
       </c>
       <c r="G1" s="118"/>
       <c r="H1" s="118"/>
@@ -9894,7 +9895,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C2">
         <v>10</v>
@@ -9909,7 +9910,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C3">
         <v>4</v>
@@ -9918,7 +9919,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -9926,7 +9927,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C4">
         <v>16</v>
@@ -9935,7 +9936,7 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="F4" s="2"/>
     </row>
@@ -9944,7 +9945,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C5">
         <v>20</v>
@@ -9953,7 +9954,7 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="F5" s="2"/>
     </row>
@@ -9962,7 +9963,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C6">
         <v>4</v>
@@ -9971,7 +9972,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -9979,7 +9980,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C7">
         <v>6</v>
@@ -9988,7 +9989,7 @@
         <v>2</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -9996,7 +9997,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C8">
         <v>26</v>
@@ -10005,7 +10006,7 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="F8" s="2"/>
     </row>
@@ -10014,7 +10015,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C9">
         <v>20</v>
@@ -10023,10 +10024,10 @@
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -10034,7 +10035,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -10043,7 +10044,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
@@ -10051,7 +10052,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C11">
         <v>14</v>
@@ -10066,7 +10067,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C12">
         <v>18</v>
@@ -10081,7 +10082,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C13">
         <v>22</v>
@@ -10090,10 +10091,10 @@
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
@@ -10101,7 +10102,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="C14">
         <v>6</v>
@@ -10110,7 +10111,7 @@
         <v>0.5</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
@@ -10118,7 +10119,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C15">
         <v>26</v>
@@ -10133,7 +10134,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C16">
         <v>18</v>
@@ -10142,7 +10143,7 @@
         <v>1.5</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -10150,7 +10151,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C17">
         <v>20</v>
@@ -10159,7 +10160,7 @@
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="F17" s="2"/>
     </row>
@@ -10168,7 +10169,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -10177,7 +10178,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -10185,7 +10186,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -10194,7 +10195,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -10202,7 +10203,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C20">
         <v>14</v>
@@ -10211,7 +10212,7 @@
         <v>1</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -10219,7 +10220,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="C21">
         <v>18</v>
@@ -10228,7 +10229,7 @@
         <v>1</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -10236,7 +10237,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="C22">
         <v>24</v>
@@ -10245,10 +10246,10 @@
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -10256,7 +10257,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C23">
         <v>16</v>
@@ -10271,7 +10272,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="C24">
         <v>12</v>
@@ -10280,10 +10281,10 @@
         <v>1.5</v>
       </c>
       <c r="E24" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -10291,7 +10292,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C25">
         <v>14</v>
@@ -10300,7 +10301,7 @@
         <v>1</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -10308,7 +10309,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C26">
         <v>22</v>
@@ -10317,7 +10318,7 @@
         <v>1.5</v>
       </c>
       <c r="E26" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="F26" s="2"/>
     </row>
@@ -10326,7 +10327,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C27">
         <v>22</v>
@@ -10335,10 +10336,10 @@
         <v>1</v>
       </c>
       <c r="E27" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -10346,7 +10347,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="C28">
         <v>16</v>
@@ -10355,7 +10356,7 @@
         <v>0.5</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -10363,7 +10364,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C29">
         <v>18</v>
@@ -10378,7 +10379,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -10387,7 +10388,7 @@
         <v>0</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -10395,7 +10396,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C31">
         <v>30</v>
@@ -10404,10 +10405,10 @@
         <v>1</v>
       </c>
       <c r="E31" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -10415,7 +10416,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C32">
         <v>28</v>
@@ -10430,7 +10431,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C33">
         <v>12</v>
@@ -10439,10 +10440,10 @@
         <v>1</v>
       </c>
       <c r="E33" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -10450,7 +10451,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -10459,10 +10460,10 @@
         <v>0</v>
       </c>
       <c r="E34" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -10470,7 +10471,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C35">
         <v>22</v>
@@ -10479,7 +10480,7 @@
         <v>1</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -10487,7 +10488,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C36">
         <v>8</v>
@@ -10496,7 +10497,7 @@
         <v>2</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -10504,7 +10505,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C37">
         <v>22</v>
@@ -10513,7 +10514,7 @@
         <v>1</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -10521,7 +10522,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C38">
         <v>16</v>
@@ -10536,7 +10537,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C39">
         <v>24</v>
@@ -10545,10 +10546,10 @@
         <v>1</v>
       </c>
       <c r="E39" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -10556,7 +10557,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="C40">
         <v>20</v>
@@ -10565,7 +10566,7 @@
         <v>1</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
@@ -10573,7 +10574,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C41">
         <v>16</v>
@@ -10582,7 +10583,7 @@
         <v>1</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -10590,7 +10591,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="C42">
         <v>8</v>
@@ -10599,10 +10600,10 @@
         <v>1</v>
       </c>
       <c r="E42" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -10610,7 +10611,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="C43">
         <v>24</v>
@@ -10625,7 +10626,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="C44">
         <v>12</v>
@@ -10634,7 +10635,7 @@
         <v>1</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -10642,7 +10643,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C45">
         <v>16</v>
@@ -10651,7 +10652,7 @@
         <v>1</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
@@ -10659,7 +10660,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>544</v>
+        <v>970</v>
       </c>
       <c r="C46">
         <v>8</v>
@@ -10668,7 +10669,7 @@
         <v>2</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
@@ -10676,7 +10677,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="C47">
         <v>32</v>
@@ -10685,7 +10686,7 @@
         <v>1</v>
       </c>
       <c r="E47" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="F47" s="2"/>
     </row>
@@ -10694,7 +10695,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="C48">
         <v>24</v>
@@ -10703,10 +10704,10 @@
         <v>1</v>
       </c>
       <c r="E48" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
@@ -10714,7 +10715,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="C49">
         <v>28</v>
@@ -10723,10 +10724,10 @@
         <v>0.5</v>
       </c>
       <c r="E49" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
@@ -10734,7 +10735,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="C50">
         <v>20</v>
@@ -10743,10 +10744,10 @@
         <v>2</v>
       </c>
       <c r="E50" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
@@ -10754,7 +10755,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="100" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="C51" s="100">
         <v>36</v>
@@ -10763,10 +10764,10 @@
         <v>1</v>
       </c>
       <c r="E51" s="100" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
     </row>
   </sheetData>
@@ -10778,8 +10779,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA4C99F2-E533-422A-91A2-4895F4C09CAE}">
   <dimension ref="A1:J45"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView topLeftCell="B16" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10794,25 +10795,25 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B1" t="s">
         <v>17</v>
       </c>
       <c r="C1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D1" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="E1" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="F1" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="J1" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -10820,22 +10821,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="C2" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="D2" s="117" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="E2">
         <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="J2" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -10843,22 +10844,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="C3" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="D3" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="E3">
         <v>3</v>
       </c>
       <c r="F3" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="J3" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -10866,22 +10867,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>601</v>
+      </c>
+      <c r="C4" t="s">
         <v>604</v>
       </c>
-      <c r="C4" t="s">
-        <v>607</v>
-      </c>
       <c r="D4" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="E4">
         <v>2</v>
       </c>
       <c r="F4" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="J4" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -10889,19 +10890,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
+        <v>602</v>
+      </c>
+      <c r="C5" t="s">
         <v>605</v>
       </c>
-      <c r="C5" t="s">
-        <v>608</v>
-      </c>
       <c r="D5" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="E5">
         <v>2</v>
       </c>
       <c r="F5" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -10909,19 +10910,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="C6" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="D6" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="E6">
         <v>5</v>
       </c>
       <c r="F6" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -10929,19 +10930,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
+        <v>610</v>
+      </c>
+      <c r="C7" t="s">
+        <v>612</v>
+      </c>
+      <c r="D7" t="s">
         <v>613</v>
-      </c>
-      <c r="C7" t="s">
-        <v>615</v>
-      </c>
-      <c r="D7" t="s">
-        <v>616</v>
       </c>
       <c r="E7">
         <v>5</v>
       </c>
       <c r="F7" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -10949,19 +10950,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C8" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="D8" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="E8">
         <v>3</v>
       </c>
       <c r="F8" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -10969,19 +10970,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
+        <v>617</v>
+      </c>
+      <c r="C9" t="s">
+        <v>619</v>
+      </c>
+      <c r="D9" t="s">
         <v>620</v>
-      </c>
-      <c r="C9" t="s">
-        <v>622</v>
-      </c>
-      <c r="D9" t="s">
-        <v>623</v>
       </c>
       <c r="E9">
         <v>3</v>
       </c>
       <c r="F9" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -10989,19 +10990,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="C10" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="D10" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="E10">
         <v>3</v>
       </c>
       <c r="F10" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -11009,19 +11010,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="C11" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="D11" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="E11">
         <v>3</v>
       </c>
       <c r="F11" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -11029,19 +11030,19 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="C12" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="D12" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="E12" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="F12" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -11049,19 +11050,19 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
+        <v>673</v>
+      </c>
+      <c r="C13" t="s">
         <v>676</v>
       </c>
-      <c r="C13" t="s">
-        <v>679</v>
-      </c>
       <c r="D13" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="E13">
         <v>2</v>
       </c>
       <c r="F13" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -11069,19 +11070,19 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="C14" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="D14" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="E14">
         <v>2</v>
       </c>
       <c r="F14" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
@@ -11089,19 +11090,19 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="C15" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="D15" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="E15">
         <v>2</v>
       </c>
       <c r="F15" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
@@ -11109,19 +11110,19 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
+        <v>636</v>
+      </c>
+      <c r="C16" t="s">
+        <v>637</v>
+      </c>
+      <c r="D16" t="s">
         <v>639</v>
-      </c>
-      <c r="C16" t="s">
-        <v>640</v>
-      </c>
-      <c r="D16" t="s">
-        <v>642</v>
       </c>
       <c r="E16">
         <v>3</v>
       </c>
       <c r="F16" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -11129,19 +11130,19 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="C17" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="D17" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="E17">
         <v>2</v>
       </c>
       <c r="F17" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -11149,19 +11150,19 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="C18" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="D18" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="E18">
         <v>2</v>
       </c>
       <c r="F18" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -11169,13 +11170,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="C19" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="D19" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="E19">
         <v>3</v>
@@ -11186,13 +11187,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="C20" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="D20" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="E20">
         <v>4</v>
@@ -11203,13 +11204,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
+        <v>652</v>
+      </c>
+      <c r="C21" t="s">
         <v>655</v>
       </c>
-      <c r="C21" t="s">
-        <v>658</v>
-      </c>
       <c r="D21" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="E21">
         <v>4</v>
@@ -11220,13 +11221,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="C22" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="D22" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="E22">
         <v>2</v>
@@ -11240,10 +11241,10 @@
         <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="D23" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="E23">
         <v>2</v>
@@ -11254,19 +11255,19 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
+        <v>658</v>
+      </c>
+      <c r="C24" t="s">
         <v>661</v>
       </c>
-      <c r="C24" t="s">
-        <v>664</v>
-      </c>
       <c r="D24" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="E24">
         <v>3</v>
       </c>
       <c r="F24" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -11274,19 +11275,19 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="C25" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="D25" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="E25">
         <v>3</v>
       </c>
       <c r="F25" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -11294,19 +11295,19 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="C26" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="D26" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="E26">
         <v>2</v>
       </c>
       <c r="F26" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -11314,19 +11315,19 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="C27" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="D27" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="E27">
         <v>2</v>
       </c>
       <c r="F27" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -11334,19 +11335,19 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
+        <v>669</v>
+      </c>
+      <c r="C28" t="s">
+        <v>678</v>
+      </c>
+      <c r="D28" t="s">
         <v>672</v>
-      </c>
-      <c r="C28" t="s">
-        <v>681</v>
-      </c>
-      <c r="D28" t="s">
-        <v>675</v>
       </c>
       <c r="E28">
         <v>2</v>
       </c>
       <c r="F28" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -11354,19 +11355,19 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="C29" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="D29" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="E29">
         <v>2</v>
       </c>
       <c r="F29" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -11374,19 +11375,19 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="C30" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="D30" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="E30">
         <v>2</v>
       </c>
       <c r="F30" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -11394,13 +11395,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
+        <v>685</v>
+      </c>
+      <c r="C31" t="s">
         <v>688</v>
       </c>
-      <c r="C31" t="s">
-        <v>691</v>
-      </c>
       <c r="D31" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -11411,19 +11412,19 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="C32" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="D32" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="E32">
         <v>2</v>
       </c>
       <c r="F32" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -11431,19 +11432,19 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
+        <v>691</v>
+      </c>
+      <c r="C33" t="s">
+        <v>693</v>
+      </c>
+      <c r="D33" t="s">
         <v>694</v>
-      </c>
-      <c r="C33" t="s">
-        <v>696</v>
-      </c>
-      <c r="D33" t="s">
-        <v>697</v>
       </c>
       <c r="E33">
         <v>2</v>
       </c>
       <c r="F33" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -11451,13 +11452,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="C34" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="D34" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="E34">
         <v>1</v>
@@ -11465,10 +11466,10 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="C36" s="127" t="s">
-        <v>959</v>
+        <v>955</v>
       </c>
       <c r="D36" s="127"/>
       <c r="E36" s="127"/>
@@ -11476,10 +11477,10 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="D37" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -11487,7 +11488,7 @@
         <v>1</v>
       </c>
       <c r="D38" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -11495,7 +11496,7 @@
         <v>2</v>
       </c>
       <c r="D39" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -11503,7 +11504,7 @@
         <v>3</v>
       </c>
       <c r="D40" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
@@ -11511,7 +11512,7 @@
         <v>4</v>
       </c>
       <c r="D41" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -11519,7 +11520,7 @@
         <v>5</v>
       </c>
       <c r="D42" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -11527,12 +11528,12 @@
         <v>6</v>
       </c>
       <c r="D43" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="64.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C45" s="126" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="D45" s="126"/>
       <c r="E45" s="126"/>
@@ -11549,10 +11550,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76BAF1AA-EE94-4C61-AD9A-8CA48648E800}">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:G106"/>
   <sheetViews>
-    <sheetView topLeftCell="A78" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D90" sqref="D90"/>
+    <sheetView topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D96" sqref="D96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11569,22 +11570,22 @@
         <v>94</v>
       </c>
       <c r="B1" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="C1" t="s">
         <v>17</v>
       </c>
       <c r="D1" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="E1" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="F1" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="G1" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -11592,19 +11593,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="C2" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="D2" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="F2" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="G2" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -11612,19 +11613,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="F3" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="G3" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -11632,19 +11633,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="C4" t="s">
+        <v>718</v>
+      </c>
+      <c r="D4" t="s">
+        <v>719</v>
+      </c>
+      <c r="F4" t="s">
         <v>721</v>
       </c>
-      <c r="D4" t="s">
-        <v>722</v>
-      </c>
-      <c r="F4" t="s">
-        <v>724</v>
-      </c>
       <c r="G4" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -11652,16 +11653,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="C5" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="D5" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="G5" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -11669,19 +11670,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="C6" t="s">
+        <v>725</v>
+      </c>
+      <c r="D6" t="s">
+        <v>726</v>
+      </c>
+      <c r="E6" t="s">
         <v>728</v>
       </c>
-      <c r="D6" t="s">
-        <v>729</v>
-      </c>
-      <c r="E6" t="s">
-        <v>731</v>
-      </c>
       <c r="G6" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -11689,16 +11690,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="C7" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
       <c r="D7" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="G7" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -11706,16 +11707,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
+        <v>772</v>
+      </c>
+      <c r="C8" t="s">
         <v>776</v>
       </c>
-      <c r="C8" t="s">
-        <v>780</v>
-      </c>
       <c r="D8" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="G8" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -11723,16 +11724,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="C9" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="D9" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="G9" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -11740,13 +11741,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="C10" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="G10" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -11754,16 +11755,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="C11" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
       <c r="D11" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="G11" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -11771,16 +11772,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="C12" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="D12" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="G12" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -11788,16 +11789,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="C13" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="D13" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
       <c r="G13" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -11805,16 +11806,16 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="C14" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="D14" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
       <c r="G14" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -11822,19 +11823,19 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="C15" t="s">
+        <v>801</v>
+      </c>
+      <c r="D15" t="s">
+        <v>802</v>
+      </c>
+      <c r="E15" t="s">
         <v>805</v>
       </c>
-      <c r="D15" t="s">
-        <v>806</v>
-      </c>
-      <c r="E15" t="s">
-        <v>809</v>
-      </c>
       <c r="G15" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -11842,13 +11843,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="C16" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
       <c r="G16" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -11856,19 +11857,19 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="C17" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
       <c r="D17" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="E17" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="G17" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
@@ -11879,19 +11880,19 @@
         <v>102</v>
       </c>
       <c r="C18" t="s">
+        <v>766</v>
+      </c>
+      <c r="D18" t="s">
+        <v>767</v>
+      </c>
+      <c r="E18" t="s">
+        <v>768</v>
+      </c>
+      <c r="F18" t="s">
         <v>770</v>
       </c>
-      <c r="D18" t="s">
-        <v>771</v>
-      </c>
-      <c r="E18" t="s">
-        <v>772</v>
-      </c>
-      <c r="F18" t="s">
-        <v>774</v>
-      </c>
       <c r="G18" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
@@ -11902,16 +11903,16 @@
         <v>102</v>
       </c>
       <c r="C19" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
       <c r="D19" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="E19" t="s">
-        <v>829</v>
+        <v>825</v>
       </c>
       <c r="G19" t="s">
-        <v>830</v>
+        <v>826</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
@@ -11922,13 +11923,13 @@
         <v>102</v>
       </c>
       <c r="C20" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D20" t="s">
-        <v>971</v>
+        <v>967</v>
       </c>
       <c r="E20" t="s">
-        <v>829</v>
+        <v>825</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
@@ -11961,7 +11962,7 @@
         <v>102</v>
       </c>
       <c r="C23" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
@@ -11972,10 +11973,10 @@
         <v>102</v>
       </c>
       <c r="C24" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
       <c r="G24" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
@@ -11986,10 +11987,10 @@
         <v>102</v>
       </c>
       <c r="C25" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
       <c r="G25" t="s">
-        <v>865</v>
+        <v>861</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
@@ -12000,10 +12001,10 @@
         <v>102</v>
       </c>
       <c r="C26" t="s">
-        <v>862</v>
+        <v>858</v>
       </c>
       <c r="G26" t="s">
-        <v>863</v>
+        <v>859</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
@@ -12014,10 +12015,10 @@
         <v>102</v>
       </c>
       <c r="C27" t="s">
-        <v>866</v>
+        <v>862</v>
       </c>
       <c r="G27" t="s">
-        <v>867</v>
+        <v>863</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
@@ -12028,10 +12029,10 @@
         <v>102</v>
       </c>
       <c r="C28" t="s">
-        <v>859</v>
+        <v>855</v>
       </c>
       <c r="G28" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
@@ -12039,13 +12040,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="C29" t="s">
-        <v>846</v>
+        <v>842</v>
       </c>
       <c r="G29" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
@@ -12053,13 +12054,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="C30" t="s">
-        <v>847</v>
+        <v>843</v>
       </c>
       <c r="G30" t="s">
-        <v>854</v>
+        <v>850</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
@@ -12067,13 +12068,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="C31" t="s">
-        <v>848</v>
+        <v>844</v>
       </c>
       <c r="G31" t="s">
-        <v>854</v>
+        <v>850</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
@@ -12081,13 +12082,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="C32" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
       <c r="G32" t="s">
-        <v>854</v>
+        <v>850</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
@@ -12095,13 +12096,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="C33" t="s">
+        <v>846</v>
+      </c>
+      <c r="G33" t="s">
         <v>850</v>
-      </c>
-      <c r="G33" t="s">
-        <v>854</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
@@ -12109,13 +12110,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="C34" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
       <c r="G34" t="s">
-        <v>854</v>
+        <v>850</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
@@ -12123,13 +12124,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="C35" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="G35" t="s">
-        <v>854</v>
+        <v>850</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
@@ -12137,13 +12138,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="C36" t="s">
-        <v>853</v>
+        <v>849</v>
       </c>
       <c r="G36" t="s">
-        <v>854</v>
+        <v>850</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
@@ -12151,10 +12152,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="C37" t="s">
-        <v>855</v>
+        <v>851</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
@@ -12162,13 +12163,13 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="C38" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
       <c r="G38" t="s">
-        <v>854</v>
+        <v>850</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
@@ -12176,13 +12177,13 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="C39" t="s">
-        <v>857</v>
+        <v>853</v>
       </c>
       <c r="G39" t="s">
-        <v>854</v>
+        <v>850</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
@@ -12193,13 +12194,13 @@
         <v>102</v>
       </c>
       <c r="C40" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
       <c r="D40" t="s">
-        <v>843</v>
+        <v>839</v>
       </c>
       <c r="G40" t="s">
-        <v>854</v>
+        <v>850</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
@@ -12207,13 +12208,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="C41" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="G41" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
@@ -12221,16 +12222,16 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="C42" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
       <c r="D42" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="G42" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
@@ -12238,16 +12239,16 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="C43" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="D43" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="G43" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
@@ -12255,16 +12256,16 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="C44" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="D44" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="G44" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
@@ -12272,16 +12273,16 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="C45" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="D45" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
       <c r="G45" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
@@ -12289,16 +12290,16 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="C46" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
       <c r="D46" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="G46" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
@@ -12306,22 +12307,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="C47" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="D47" t="s">
-        <v>885</v>
+        <v>881</v>
       </c>
       <c r="E47" t="s">
-        <v>887</v>
+        <v>883</v>
       </c>
       <c r="F47" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="G47" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
@@ -12329,22 +12330,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="C48" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="D48" t="s">
-        <v>886</v>
+        <v>882</v>
       </c>
       <c r="E48" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="F48" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="G48" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
@@ -12352,16 +12353,16 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="C49" t="s">
+        <v>831</v>
+      </c>
+      <c r="D49" t="s">
+        <v>832</v>
+      </c>
+      <c r="G49" t="s">
         <v>835</v>
-      </c>
-      <c r="D49" t="s">
-        <v>836</v>
-      </c>
-      <c r="G49" t="s">
-        <v>839</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
@@ -12369,19 +12370,19 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="C50" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="D50" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="E50" t="s">
-        <v>926</v>
+        <v>922</v>
       </c>
       <c r="G50" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
@@ -12389,16 +12390,16 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="C51" t="s">
-        <v>831</v>
+        <v>827</v>
       </c>
       <c r="D51" t="s">
+        <v>829</v>
+      </c>
+      <c r="G51" t="s">
         <v>833</v>
-      </c>
-      <c r="G51" t="s">
-        <v>837</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
@@ -12406,16 +12407,16 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="C52" t="s">
+        <v>830</v>
+      </c>
+      <c r="D52" t="s">
+        <v>829</v>
+      </c>
+      <c r="G52" t="s">
         <v>834</v>
-      </c>
-      <c r="D52" t="s">
-        <v>833</v>
-      </c>
-      <c r="G52" t="s">
-        <v>838</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
@@ -12423,16 +12424,16 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="C53" t="s">
+        <v>831</v>
+      </c>
+      <c r="D53" t="s">
+        <v>832</v>
+      </c>
+      <c r="G53" t="s">
         <v>835</v>
-      </c>
-      <c r="D53" t="s">
-        <v>836</v>
-      </c>
-      <c r="G53" t="s">
-        <v>839</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
@@ -12440,13 +12441,13 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="C54" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
       <c r="G54" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
@@ -12454,16 +12455,16 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="C55" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
       <c r="D55" t="s">
-        <v>843</v>
+        <v>839</v>
       </c>
       <c r="G55" t="s">
-        <v>844</v>
+        <v>840</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
@@ -12471,13 +12472,13 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="C56" t="s">
-        <v>870</v>
+        <v>866</v>
       </c>
       <c r="G56" t="s">
-        <v>871</v>
+        <v>867</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
@@ -12485,13 +12486,13 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="C57" t="s">
-        <v>872</v>
+        <v>868</v>
       </c>
       <c r="G57" t="s">
-        <v>873</v>
+        <v>869</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
@@ -12499,16 +12500,16 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="C58" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
       <c r="D58" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="G58" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
@@ -12516,22 +12517,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="C59" t="s">
-        <v>874</v>
+        <v>870</v>
       </c>
       <c r="D59" t="s">
-        <v>875</v>
+        <v>871</v>
       </c>
       <c r="E59" t="s">
-        <v>876</v>
+        <v>872</v>
       </c>
       <c r="F59" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="G59" t="s">
-        <v>877</v>
+        <v>873</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
@@ -12539,16 +12540,16 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="C60" t="s">
-        <v>878</v>
+        <v>874</v>
       </c>
       <c r="D60" t="s">
-        <v>879</v>
+        <v>875</v>
       </c>
       <c r="G60" t="s">
-        <v>880</v>
+        <v>876</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
@@ -12556,13 +12557,13 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="C61" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
       <c r="G61" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
@@ -12570,16 +12571,16 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="C62" t="s">
-        <v>883</v>
+        <v>879</v>
       </c>
       <c r="D62" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="G62" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
@@ -12587,16 +12588,16 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="C63" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D63" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="G63" t="s">
-        <v>890</v>
+        <v>886</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
@@ -12604,19 +12605,19 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="C64" t="s">
-        <v>891</v>
+        <v>887</v>
       </c>
       <c r="D64" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="E64" t="s">
-        <v>893</v>
+        <v>889</v>
       </c>
       <c r="G64" t="s">
-        <v>894</v>
+        <v>890</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
@@ -12624,22 +12625,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="C65" t="s">
+        <v>891</v>
+      </c>
+      <c r="D65" t="s">
+        <v>892</v>
+      </c>
+      <c r="E65" t="s">
+        <v>893</v>
+      </c>
+      <c r="F65" t="s">
+        <v>894</v>
+      </c>
+      <c r="G65" t="s">
         <v>895</v>
-      </c>
-      <c r="D65" t="s">
-        <v>896</v>
-      </c>
-      <c r="E65" t="s">
-        <v>897</v>
-      </c>
-      <c r="F65" t="s">
-        <v>898</v>
-      </c>
-      <c r="G65" t="s">
-        <v>899</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
@@ -12647,13 +12648,13 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="C66" t="s">
-        <v>900</v>
+        <v>896</v>
       </c>
       <c r="G66" t="s">
-        <v>901</v>
+        <v>897</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
@@ -12661,16 +12662,16 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="C67" t="s">
-        <v>902</v>
+        <v>898</v>
       </c>
       <c r="D67" t="s">
-        <v>903</v>
+        <v>899</v>
       </c>
       <c r="G67" t="s">
-        <v>904</v>
+        <v>900</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
@@ -12678,19 +12679,19 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="C68" t="s">
-        <v>905</v>
+        <v>901</v>
       </c>
       <c r="D68" t="s">
-        <v>906</v>
+        <v>902</v>
       </c>
       <c r="E68" t="s">
-        <v>893</v>
+        <v>889</v>
       </c>
       <c r="G68" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
@@ -12698,19 +12699,19 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="C69" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
       <c r="D69" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="E69" t="s">
-        <v>926</v>
+        <v>922</v>
       </c>
       <c r="G69" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
@@ -12718,13 +12719,13 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="C70" t="s">
-        <v>909</v>
+        <v>905</v>
       </c>
       <c r="G70" t="s">
-        <v>914</v>
+        <v>910</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
@@ -12732,16 +12733,16 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="C71" t="s">
-        <v>910</v>
+        <v>906</v>
       </c>
       <c r="D71" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G71" t="s">
-        <v>915</v>
+        <v>911</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
@@ -12749,13 +12750,13 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="C72" t="s">
+        <v>912</v>
+      </c>
+      <c r="G72" t="s">
         <v>916</v>
-      </c>
-      <c r="G72" t="s">
-        <v>920</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
@@ -12763,13 +12764,13 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="C73" t="s">
+        <v>913</v>
+      </c>
+      <c r="G73" t="s">
         <v>917</v>
-      </c>
-      <c r="G73" t="s">
-        <v>921</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
@@ -12777,13 +12778,13 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="C74" t="s">
+        <v>914</v>
+      </c>
+      <c r="G74" t="s">
         <v>918</v>
-      </c>
-      <c r="G74" t="s">
-        <v>922</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
@@ -12791,13 +12792,13 @@
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="C75" t="s">
+        <v>915</v>
+      </c>
+      <c r="G75" t="s">
         <v>919</v>
-      </c>
-      <c r="G75" t="s">
-        <v>923</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
@@ -12805,13 +12806,13 @@
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="C76" t="s">
-        <v>924</v>
+        <v>920</v>
       </c>
       <c r="G76" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
@@ -12819,16 +12820,16 @@
         <v>74</v>
       </c>
       <c r="B77" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="C77" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="D77" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="G77" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
@@ -12836,22 +12837,22 @@
         <v>75</v>
       </c>
       <c r="B78" t="s">
+        <v>762</v>
+      </c>
+      <c r="C78" t="s">
         <v>766</v>
       </c>
-      <c r="C78" t="s">
+      <c r="D78" t="s">
+        <v>767</v>
+      </c>
+      <c r="E78" t="s">
+        <v>768</v>
+      </c>
+      <c r="F78" t="s">
         <v>770</v>
       </c>
-      <c r="D78" t="s">
+      <c r="G78" t="s">
         <v>771</v>
-      </c>
-      <c r="E78" t="s">
-        <v>772</v>
-      </c>
-      <c r="F78" t="s">
-        <v>774</v>
-      </c>
-      <c r="G78" t="s">
-        <v>775</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
@@ -12859,13 +12860,13 @@
         <v>76</v>
       </c>
       <c r="B79" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="C79" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="G79" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
@@ -12873,16 +12874,16 @@
         <v>77</v>
       </c>
       <c r="B80" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="C80" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
       <c r="D80" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="G80" t="s">
-        <v>832</v>
+        <v>828</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
@@ -12890,16 +12891,16 @@
         <v>78</v>
       </c>
       <c r="B81" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="C81" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="D81" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="G81" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
@@ -12907,13 +12908,13 @@
         <v>79</v>
       </c>
       <c r="B82" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="C82" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="G82" t="s">
-        <v>927</v>
+        <v>923</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
@@ -12921,13 +12922,13 @@
         <v>80</v>
       </c>
       <c r="B83" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="C83" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="G83" t="s">
-        <v>928</v>
+        <v>924</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
@@ -12935,13 +12936,13 @@
         <v>81</v>
       </c>
       <c r="B84" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="C84" t="s">
-        <v>929</v>
+        <v>925</v>
       </c>
       <c r="G84" t="s">
-        <v>930</v>
+        <v>926</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.3">
@@ -12949,16 +12950,16 @@
         <v>82</v>
       </c>
       <c r="B85" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="C85" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="D85" t="s">
-        <v>933</v>
+        <v>929</v>
       </c>
       <c r="G85" t="s">
-        <v>931</v>
+        <v>927</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.3">
@@ -12966,21 +12967,21 @@
         <v>83</v>
       </c>
       <c r="B86" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="C86" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="D86" t="s">
-        <v>933</v>
+        <v>929</v>
       </c>
       <c r="G86" t="s">
-        <v>932</v>
+        <v>928</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G87" t="s">
-        <v>935</v>
+        <v>931</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.3">
@@ -12988,22 +12989,22 @@
         <v>84</v>
       </c>
       <c r="B88" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="C88" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="D88" t="s">
-        <v>885</v>
+        <v>881</v>
       </c>
       <c r="E88" t="s">
-        <v>887</v>
+        <v>883</v>
       </c>
       <c r="F88" t="s">
-        <v>954</v>
+        <v>950</v>
       </c>
       <c r="G88" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.3">
@@ -13011,22 +13012,22 @@
         <v>85</v>
       </c>
       <c r="B89" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="C89" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="D89" t="s">
-        <v>886</v>
+        <v>882</v>
       </c>
       <c r="E89" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="F89" t="s">
-        <v>954</v>
+        <v>950</v>
       </c>
       <c r="G89" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.3">
@@ -13034,16 +13035,16 @@
         <v>86</v>
       </c>
       <c r="B90" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="C90" t="s">
+        <v>831</v>
+      </c>
+      <c r="D90" t="s">
+        <v>832</v>
+      </c>
+      <c r="G90" t="s">
         <v>835</v>
-      </c>
-      <c r="D90" t="s">
-        <v>836</v>
-      </c>
-      <c r="G90" t="s">
-        <v>839</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.3">
@@ -13051,22 +13052,22 @@
         <v>87</v>
       </c>
       <c r="B91" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="C91" t="s">
-        <v>874</v>
+        <v>870</v>
       </c>
       <c r="D91" t="s">
-        <v>875</v>
+        <v>871</v>
       </c>
       <c r="E91" t="s">
-        <v>876</v>
+        <v>872</v>
       </c>
       <c r="F91" t="s">
-        <v>954</v>
+        <v>950</v>
       </c>
       <c r="G91" t="s">
-        <v>934</v>
+        <v>930</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.3">
@@ -13074,16 +13075,16 @@
         <v>88</v>
       </c>
       <c r="B92" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="C92" t="s">
+        <v>932</v>
+      </c>
+      <c r="D92" t="s">
+        <v>934</v>
+      </c>
+      <c r="G92" t="s">
         <v>936</v>
-      </c>
-      <c r="D92" t="s">
-        <v>938</v>
-      </c>
-      <c r="G92" t="s">
-        <v>940</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.3">
@@ -13091,16 +13092,16 @@
         <v>89</v>
       </c>
       <c r="B93" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="C93" t="s">
+        <v>933</v>
+      </c>
+      <c r="D93" t="s">
+        <v>935</v>
+      </c>
+      <c r="G93" t="s">
         <v>937</v>
-      </c>
-      <c r="D93" t="s">
-        <v>939</v>
-      </c>
-      <c r="G93" t="s">
-        <v>941</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.3">
@@ -13108,16 +13109,16 @@
         <v>90</v>
       </c>
       <c r="B94" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="C94" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="D94" t="s">
-        <v>938</v>
+        <v>934</v>
       </c>
       <c r="G94" t="s">
-        <v>945</v>
+        <v>941</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.3">
@@ -13125,16 +13126,16 @@
         <v>91</v>
       </c>
       <c r="B95" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="C95" t="s">
-        <v>943</v>
+        <v>939</v>
       </c>
       <c r="D95" t="s">
-        <v>944</v>
+        <v>940</v>
       </c>
       <c r="G95" t="s">
-        <v>946</v>
+        <v>942</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.3">
@@ -13142,16 +13143,16 @@
         <v>92</v>
       </c>
       <c r="B96" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="C96" t="s">
-        <v>947</v>
+        <v>943</v>
       </c>
       <c r="D96" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="G96" t="s">
-        <v>948</v>
+        <v>944</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.3">
@@ -13159,16 +13160,16 @@
         <v>93</v>
       </c>
       <c r="B97" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="C97" t="s">
-        <v>949</v>
+        <v>945</v>
       </c>
       <c r="D97" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="G97" t="s">
-        <v>950</v>
+        <v>946</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.3">
@@ -13176,19 +13177,19 @@
         <v>94</v>
       </c>
       <c r="B98" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="C98" t="s">
-        <v>951</v>
+        <v>947</v>
       </c>
       <c r="D98" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="F98" t="s">
-        <v>952</v>
+        <v>948</v>
       </c>
       <c r="G98" t="s">
-        <v>953</v>
+        <v>949</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.3">
@@ -13196,16 +13197,16 @@
         <v>95</v>
       </c>
       <c r="B99" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="C99" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D99" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="G99" t="s">
-        <v>890</v>
+        <v>886</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.3">
@@ -13213,16 +13214,16 @@
         <v>96</v>
       </c>
       <c r="B100" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="C100" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
       <c r="D100" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="G100" t="s">
-        <v>957</v>
+        <v>953</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.3">
@@ -13230,13 +13231,13 @@
         <v>97</v>
       </c>
       <c r="B101" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="C101" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G101" t="s">
-        <v>958</v>
+        <v>954</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.3">
@@ -13244,13 +13245,13 @@
         <v>98</v>
       </c>
       <c r="B102" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="C102" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="G102" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.3">
@@ -13258,13 +13259,13 @@
         <v>99</v>
       </c>
       <c r="B103" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="C103" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G103" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.3">
@@ -13272,13 +13273,35 @@
         <v>100</v>
       </c>
       <c r="B104" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="C104" t="s">
+        <v>364</v>
+      </c>
+      <c r="G104" t="s">
         <v>365</v>
       </c>
-      <c r="G104" t="s">
-        <v>366</v>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>101</v>
+      </c>
+      <c r="B105" t="s">
+        <v>762</v>
+      </c>
+      <c r="C105" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>102</v>
+      </c>
+      <c r="B106" t="s">
+        <v>762</v>
+      </c>
+      <c r="C106" t="s">
+        <v>968</v>
       </c>
     </row>
   </sheetData>
@@ -13291,8 +13314,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93838CF5-8D6F-434D-9589-28890E66F7A4}">
   <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13307,16 +13330,16 @@
         <v>94</v>
       </c>
       <c r="B1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C1" t="s">
         <v>306</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="53" t="s">
+        <v>308</v>
+      </c>
+      <c r="E1" t="s">
         <v>307</v>
-      </c>
-      <c r="D1" s="53" t="s">
-        <v>309</v>
-      </c>
-      <c r="E1" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -13324,13 +13347,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C2">
         <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -13338,13 +13361,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C3">
         <v>30</v>
       </c>
       <c r="E3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -13352,7 +13375,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C4">
         <v>60</v>
@@ -13361,7 +13384,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -13369,7 +13392,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C5">
         <v>60</v>
@@ -13378,7 +13401,7 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -13386,7 +13409,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C6">
         <v>90</v>
@@ -13395,7 +13418,7 @@
         <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -13403,7 +13426,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C7">
         <v>90</v>
@@ -13412,7 +13435,7 @@
         <v>4</v>
       </c>
       <c r="E7" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -13420,13 +13443,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C8">
         <v>100</v>
       </c>
       <c r="E8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -13434,13 +13457,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C9">
         <v>60</v>
       </c>
       <c r="E9" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -13448,7 +13471,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C10">
         <v>120</v>
@@ -13457,7 +13480,7 @@
         <v>7</v>
       </c>
       <c r="E10" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -13465,13 +13488,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C11">
         <v>180</v>
       </c>
       <c r="E11" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -13479,13 +13502,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C12">
         <v>120</v>
       </c>
       <c r="E12" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -13493,13 +13516,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C13">
         <v>100</v>
       </c>
       <c r="E13" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -13507,7 +13530,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C14">
         <v>250</v>
@@ -13516,7 +13539,7 @@
         <v>11</v>
       </c>
       <c r="E14" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -13524,7 +13547,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C15">
         <v>500</v>
@@ -13533,7 +13556,7 @@
         <v>12</v>
       </c>
       <c r="E15" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -13541,13 +13564,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C16">
         <v>80</v>
       </c>
       <c r="E16" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -13555,7 +13578,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C17">
         <v>200</v>
@@ -13564,7 +13587,7 @@
         <v>14</v>
       </c>
       <c r="E17" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -13572,13 +13595,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C18">
         <v>180</v>
       </c>
       <c r="E18" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -13586,13 +13609,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C19">
         <v>150</v>
       </c>
       <c r="E19" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -13600,7 +13623,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C20">
         <v>300</v>
@@ -13609,7 +13632,7 @@
         <v>17</v>
       </c>
       <c r="E20" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -13617,13 +13640,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C21">
         <v>200</v>
       </c>
       <c r="E21" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -13631,13 +13654,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C22">
         <v>120</v>
       </c>
       <c r="E22" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -13645,7 +13668,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C23">
         <v>200</v>
@@ -13654,7 +13677,7 @@
         <v>20</v>
       </c>
       <c r="E23" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -13662,7 +13685,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C24">
         <v>100</v>
@@ -13671,7 +13694,7 @@
         <v>20</v>
       </c>
       <c r="E24" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -13679,7 +13702,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C25">
         <v>300</v>
@@ -13688,7 +13711,7 @@
         <v>22</v>
       </c>
       <c r="E25" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -13696,7 +13719,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C26">
         <v>200</v>
@@ -13705,7 +13728,7 @@
         <v>20</v>
       </c>
       <c r="E26" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -13713,7 +13736,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C27">
         <v>200</v>
@@ -13722,7 +13745,7 @@
         <v>20</v>
       </c>
       <c r="E27" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
@@ -13730,7 +13753,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C28">
         <v>80</v>
@@ -13739,7 +13762,7 @@
         <v>20</v>
       </c>
       <c r="E28" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
@@ -13747,7 +13770,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C29">
         <v>160</v>
@@ -13756,7 +13779,7 @@
         <v>26</v>
       </c>
       <c r="E29" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -13764,13 +13787,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C30">
         <v>120</v>
       </c>
       <c r="E30" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
@@ -13778,7 +13801,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C31">
         <v>200</v>
@@ -13787,7 +13810,7 @@
         <v>28</v>
       </c>
       <c r="E31" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
@@ -13795,7 +13818,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C32">
         <v>100</v>
@@ -13804,7 +13827,7 @@
         <v>28</v>
       </c>
       <c r="E32" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
@@ -13812,7 +13835,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C33">
         <v>300</v>
@@ -13821,7 +13844,7 @@
         <v>30</v>
       </c>
       <c r="E33" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
@@ -13829,7 +13852,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C34">
         <v>200</v>
@@ -13838,7 +13861,7 @@
         <v>28</v>
       </c>
       <c r="E34" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
@@ -13846,7 +13869,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C35">
         <v>400</v>
@@ -13855,7 +13878,7 @@
         <v>28</v>
       </c>
       <c r="E35" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
@@ -13863,7 +13886,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C36">
         <v>80</v>
@@ -13872,7 +13895,7 @@
         <v>28</v>
       </c>
       <c r="E36" t="s">
-        <v>955</v>
+        <v>951</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
@@ -13880,7 +13903,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C37">
         <v>160</v>
@@ -13889,7 +13912,7 @@
         <v>34</v>
       </c>
       <c r="E37" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
@@ -13897,13 +13920,13 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C38">
         <v>50</v>
       </c>
       <c r="E38" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
@@ -13911,13 +13934,13 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C39">
         <v>500</v>
       </c>
       <c r="E39" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
@@ -13925,7 +13948,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C40">
         <v>750</v>
@@ -13934,7 +13957,7 @@
         <v>37</v>
       </c>
       <c r="E40" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
@@ -13942,7 +13965,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C41">
         <v>750</v>
@@ -13951,7 +13974,7 @@
         <v>37</v>
       </c>
       <c r="E41" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
@@ -13959,7 +13982,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="C42">
         <v>1000</v>
@@ -13968,7 +13991,7 @@
         <v>37</v>
       </c>
       <c r="E42" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
@@ -13976,7 +13999,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C43">
         <v>1000</v>
@@ -13985,7 +14008,7 @@
         <v>37</v>
       </c>
       <c r="E43" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
@@ -13993,7 +14016,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C44">
         <v>1000</v>
@@ -14002,7 +14025,7 @@
         <v>37</v>
       </c>
       <c r="E44" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
   </sheetData>
